--- a/bilagor/Ansokdatablad.xlsx
+++ b/bilagor/Ansokdatablad.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t xml:space="preserve">Ekhagastiftelsen </t>
   </si>
@@ -86,12 +86,6 @@
     <t>Hos Ekhagastiftelsen sökt belopp:</t>
   </si>
   <si>
-    <t>Projektstart:</t>
-  </si>
-  <si>
-    <t>Projektslut:</t>
-  </si>
-  <si>
     <t>Har medel sökts tidigare:</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>Kommentar/Exempel</t>
-  </si>
-  <si>
-    <t>L (lantbruk) eller M (medicin)</t>
   </si>
   <si>
     <t>Namn och kontaktuppgifter till person</t>
@@ -157,12 +148,21 @@
   <si>
     <t>Projekttitel på engelska:</t>
   </si>
+  <si>
+    <t>Projektstart (period finansierad av Ekhagastiftelsen):</t>
+  </si>
+  <si>
+    <t>Projektslut (period finansierad av Ekhagastiftelsen):</t>
+  </si>
+  <si>
+    <t>används ej</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,6 +187,11 @@
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -227,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,12 +247,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -257,6 +256,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +549,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -560,61 +569,63 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -622,7 +633,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,7 +641,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -638,7 +649,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -646,7 +657,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -654,7 +665,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -662,7 +673,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -670,21 +681,21 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -692,7 +703,7 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
@@ -700,7 +711,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
@@ -708,7 +719,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
@@ -716,7 +727,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
@@ -724,7 +735,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,7 +743,7 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
@@ -740,7 +751,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
@@ -748,92 +759,87 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="8"/>
+      <c r="A26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="A31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="9"/>
+      <c r="A32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -841,6 +847,11 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.49" bottom="0.25" header="0.34" footer="0.16"/>
